--- a/testfiles/College2.xlsx
+++ b/testfiles/College2.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{082C3070-BDB3-4928-8560-6D58A5A0D0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912CC49F-FCE5-4EA4-B1DA-3121C0B475C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DA2CADA-0DB3-475B-A85E-4D7D4C7260B6}"/>
+    <workbookView xWindow="3120" yWindow="600" windowWidth="17595" windowHeight="15600" activeTab="3" xr2:uid="{3DA2CADA-0DB3-475B-A85E-4D7D4C7260B6}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,9 +39,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+  <si>
+    <t>科系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡稱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年均值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三年</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二年</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一年</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序欄</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>院均值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試二</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -49,16 +99,119 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -66,19 +219,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{1FFFE614-591E-4F1F-99D9-6AA7178000D3}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{3137D39F-EA1C-41E5-8DAD-52175C2D9A87}"/>
+    <cellStyle name="百分比 2" xfId="3" xr:uid="{C2D572F4-0620-4EF5-9AFD-308C3961FD4B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -91,6 +291,4201 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12681020904925544"/>
+          <c:y val="2.8135873625787174E-2"/>
+          <c:w val="0.84782663946162662"/>
+          <c:h val="0.66325034688867546"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>第一年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:tint val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="50800">
+                        <a:schemeClr val="bg1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>測試二</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-531D-42AF-B3A5-C11753A25AD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>第二年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="50800">
+                        <a:schemeClr val="bg1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>測試二</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-531D-42AF-B3A5-C11753A25AD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>第三年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="38100">
+                <a:schemeClr val="bg1"/>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="50800">
+                        <a:schemeClr val="bg1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>測試二</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-531D-42AF-B3A5-C11753A25AD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>三年均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="clip" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln w="3175">
+                        <a:noFill/>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:effectLst>
+                        <a:glow rad="50800">
+                          <a:schemeClr val="bg1">
+                            <a:alpha val="40000"/>
+                          </a:schemeClr>
+                        </a:glow>
+                      </a:effectLst>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-531D-42AF-B3A5-C11753A25AD2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="clip" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="50800">
+                        <a:schemeClr val="bg1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>測試二</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-531D-42AF-B3A5-C11753A25AD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="292236680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292237072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="292237072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292236680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12681020904925544"/>
+          <c:y val="2.8135873625787174E-2"/>
+          <c:w val="0.84782663946162662"/>
+          <c:h val="0.66325034688867546"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>第一年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:tint val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="50800">
+                        <a:schemeClr val="bg1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>測試二</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2568-45BB-9D4D-2EC73CB1056C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>第二年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="50800">
+                        <a:schemeClr val="bg1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>測試二</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2568-45BB-9D4D-2EC73CB1056C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>第三年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="38100">
+                <a:schemeClr val="bg1"/>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="50800">
+                        <a:schemeClr val="bg1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>測試二</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2568-45BB-9D4D-2EC73CB1056C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>三年均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="clip" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln w="3175">
+                        <a:noFill/>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:effectLst>
+                        <a:glow rad="50800">
+                          <a:schemeClr val="bg1">
+                            <a:alpha val="40000"/>
+                          </a:schemeClr>
+                        </a:glow>
+                      </a:effectLst>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-2568-45BB-9D4D-2EC73CB1056C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="clip" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="50800">
+                        <a:schemeClr val="bg1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>測試二</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2568-45BB-9D4D-2EC73CB1056C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="292236680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292237072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="292237072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292236680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12681020904925544"/>
+          <c:y val="2.8135873625787174E-2"/>
+          <c:w val="0.84782663946162662"/>
+          <c:h val="0.66325034688867546"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>第一年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:tint val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="50800">
+                        <a:schemeClr val="bg1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>測試二</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$2:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D47-40D6-BEE8-4A1B44EC3033}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>第二年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="50800">
+                        <a:schemeClr val="bg1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>測試二</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$2:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D47-40D6-BEE8-4A1B44EC3033}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>第三年</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="38100">
+                <a:schemeClr val="bg1"/>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="50800">
+                        <a:schemeClr val="bg1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>測試二</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8D47-40D6-BEE8-4A1B44EC3033}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>三年均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="clip" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln w="3175">
+                        <a:noFill/>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:effectLst>
+                        <a:glow rad="50800">
+                          <a:schemeClr val="bg1">
+                            <a:alpha val="40000"/>
+                          </a:schemeClr>
+                        </a:glow>
+                      </a:effectLst>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-8D47-40D6-BEE8-4A1B44EC3033}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="clip" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="50800">
+                        <a:schemeClr val="bg1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>測試二</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8D47-40D6-BEE8-4A1B44EC3033}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="292236680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292237072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="292237072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292236680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="8839200" y="19050"/>
+    <xdr:ext cx="5587200" cy="3747600"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F19ABC3-F61D-49D4-BA63-9D56FA0EF75A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="8839200" y="19050"/>
+    <xdr:ext cx="5587200" cy="3747600"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6BB0D8-AAE2-4B64-9ED7-F50BD851DF81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="8839200" y="19050"/>
+    <xdr:ext cx="5587200" cy="3747600"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{297EEB11-DA2F-4239-8BFB-E1872352CC3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="template"/>
+      <sheetName val="工作表2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>三年均值</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>第三年</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>第二年</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>第一年</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>院均值</v>
+          </cell>
+          <cell r="C2">
+            <v>0.06</v>
+          </cell>
+          <cell r="D2">
+            <v>0.06</v>
+          </cell>
+          <cell r="E2">
+            <v>0.03</v>
+          </cell>
+          <cell r="F2">
+            <v>1.4999999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>測試二</v>
+          </cell>
+          <cell r="C3">
+            <v>0.05</v>
+          </cell>
+          <cell r="D3">
+            <v>0.04</v>
+          </cell>
+          <cell r="E3">
+            <v>0.01</v>
+          </cell>
+          <cell r="F3">
+            <v>3.5000000000000003E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,16 +4783,300 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{4E1B326F-119C-463B-B51C-27DC13393BC4}">
+  <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA784F20-D780-45C2-9799-7E358645D9CA}">
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5470053C-89D6-4641-9987-BEC9A40AF1C7}">
+  <sheetPr codeName="工作表2"/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G2" s="8">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F3" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D1192D-0AB8-4900-8E49-64DC21F8DBC6}">
+  <sheetPr codeName="工作表3"/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G2" s="8">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F3" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4921D6B-983B-4AAD-86B9-753CFE47DB6A}">
+  <sheetPr codeName="工作表4"/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G2" s="8">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F3" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>